--- a/Import_Accounting/Template_Invoice_Credit_note.xlsx
+++ b/Import_Accounting/Template_Invoice_Credit_note.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ball\Documents\Git_apcball\Project1\Import_Invocie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ball\Documents\Git_apcball\Project1\Import_Accounting\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="18084" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="18084"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="145">
   <si>
     <t>invoice_date</t>
   </si>
@@ -52,52 +52,409 @@
     <t>old_partner_code</t>
   </si>
   <si>
-    <t>วันที่เอกสาร</t>
-  </si>
-  <si>
-    <t>เลขที่เอกสาร</t>
-  </si>
-  <si>
-    <t>รหัสลูกค้า</t>
-  </si>
-  <si>
-    <t>รหัสลูกค้า MGTX</t>
-  </si>
-  <si>
-    <t>ชื่อลูกค้า</t>
-  </si>
-  <si>
-    <t>ราคาต่อหน่วย</t>
-  </si>
-  <si>
-    <t>เอกสารอ้างอิง</t>
-  </si>
-  <si>
-    <t>สมุดรายวัน</t>
-  </si>
-  <si>
-    <t>หมายเหตุ</t>
-  </si>
-  <si>
     <t>account_id</t>
   </si>
   <si>
-    <t>account code ลง บัญชี</t>
-  </si>
-  <si>
-    <t>รายล่ะเอียดการลง บัญชี</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
-    <t>จำนวน</t>
-  </si>
-  <si>
     <t>tax_ids</t>
   </si>
   <si>
-    <t>ภาษีมูลค่าเพิ่ม</t>
+    <t>BGD-000784</t>
+  </si>
+  <si>
+    <t>CSI001</t>
+  </si>
+  <si>
+    <t>บริษัท คาซ่า อินโนเทค จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>เจ้าหนี้การค้าในประเทศ - บริษัท คาซ่า อินโนเทค จำกัด (สำนักงานใหญ่)บริษัท คาซ่า อินโนเทค จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>BGD-000898</t>
+  </si>
+  <si>
+    <t>BGD-6709001</t>
+  </si>
+  <si>
+    <t>9/27/2024</t>
+  </si>
+  <si>
+    <t>BGD-000001</t>
+  </si>
+  <si>
+    <t>6/28/2024</t>
+  </si>
+  <si>
+    <t>IDS001</t>
+  </si>
+  <si>
+    <t>บริษัท ไอดอล ซิสเท่ม จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>เจ้าหนี้การค้าในประเทศ - บริษัท ไอดอล ซิสเท่ม จำกัด (สำนักงานใหญ่)บริษัท ไอดอล ซิสเท่ม จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>BGD-000002</t>
+  </si>
+  <si>
+    <t>BGD-000003</t>
+  </si>
+  <si>
+    <t>BGD-000004</t>
+  </si>
+  <si>
+    <t>BGD-000635</t>
+  </si>
+  <si>
+    <t>9/24/2024</t>
+  </si>
+  <si>
+    <t>BRO-000001</t>
+  </si>
+  <si>
+    <t>6/30/2024</t>
+  </si>
+  <si>
+    <t>BGD-000881</t>
+  </si>
+  <si>
+    <t>M013</t>
+  </si>
+  <si>
+    <t>MIROTONE (THAILAND) CO., LTD.</t>
+  </si>
+  <si>
+    <t>เจ้าหนี้การค้าในประเทศ - MIROTONE (THAILAND) CO., LTD.MIROTONE (THAILAND) CO., LTD.</t>
+  </si>
+  <si>
+    <t>BGD-000930</t>
+  </si>
+  <si>
+    <t>12/21/2024</t>
+  </si>
+  <si>
+    <t>BGD-000935</t>
+  </si>
+  <si>
+    <t>PSM001</t>
+  </si>
+  <si>
+    <t>บริษัท พี.เอส.เอ็ม.ฮาร์ดแวร์ จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>เจ้าหนี้การค้าในประเทศ - บริษัท พี.เอส.เอ็ม.ฮาร์ดแวร์ จำกัด (สำนักงานใหญ่)บริษัท พี.เอส.เอ็ม.ฮาร์ดแวร์ จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>BRO-000350</t>
+  </si>
+  <si>
+    <t>12/24/2024</t>
+  </si>
+  <si>
+    <t>BRO-000057</t>
+  </si>
+  <si>
+    <t>8/29/2024</t>
+  </si>
+  <si>
+    <t>VEN6100109</t>
+  </si>
+  <si>
+    <t>บริษัท บัณฑิต แอนด์ แมชชีน สเปค จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>เจ้าหนี้การค้าในประเทศ - บริษัท บัณฑิต แอนด์ แมชชีน สเปค จำกัด (สำนักงานใหญ่)บริษัท บัณฑิต แอนด์ แมชชีน สเปค จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>BGD-000838</t>
+  </si>
+  <si>
+    <t>11/28/2024</t>
+  </si>
+  <si>
+    <t>VEN6200081</t>
+  </si>
+  <si>
+    <t>บริษัท เอส.เอส.โซลูชั่น จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>เจ้าหนี้การค้าในประเทศ - บริษัท เอส.เอส.โซลูชั่น จำกัด (สำนักงานใหญ่)บริษัท เอส.เอส.โซลูชั่น จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>BGD-000857</t>
+  </si>
+  <si>
+    <t>YUK001</t>
+  </si>
+  <si>
+    <t>บริษัท ย่งง้วนเหล็กกล้า จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>เจ้าหนี้การค้าในประเทศ - บริษัท ย่งง้วนเหล็กกล้า จำกัด (สำนักงานใหญ่)บริษัท ย่งง้วนเหล็กกล้า จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>BGD-000897</t>
+  </si>
+  <si>
+    <t>BGD-000944</t>
+  </si>
+  <si>
+    <t>BGD-000945</t>
+  </si>
+  <si>
+    <t>BGD-000946</t>
+  </si>
+  <si>
+    <t>BGD-000947</t>
+  </si>
+  <si>
+    <t>BGD-000948</t>
+  </si>
+  <si>
+    <t>RO-0010671</t>
+  </si>
+  <si>
+    <t>12/26/2024</t>
+  </si>
+  <si>
+    <t>HAF01</t>
+  </si>
+  <si>
+    <t>บริษัท เฮเฟเล่ (ประเทศไทย) จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>เจ้าหนี้การค้าในประเทศ - บริษัท เฮเฟเล่ (ประเทศไทย) จำกัด (สำนักงานใหญ่)บริษัท เฮเฟเล่ (ประเทศไทย) จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>RO-0010545</t>
+  </si>
+  <si>
+    <t>10/16/2024</t>
+  </si>
+  <si>
+    <t>LNM001</t>
+  </si>
+  <si>
+    <t>บริษัท ลานนา ไม้อัดไทย จำกัด (สาขาที่ 00001)</t>
+  </si>
+  <si>
+    <t>เจ้าหนี้การค้าในประเทศ - บริษัท ลานนา ไม้อัดไทย จำกัด (สาขาที่ 00001)บริษัท ลานนา ไม้อัดไทย จำกัด (สาขาที่ 00001)</t>
+  </si>
+  <si>
+    <t>GD-0043210</t>
+  </si>
+  <si>
+    <t>12/20/2024</t>
+  </si>
+  <si>
+    <t>TCI001</t>
+  </si>
+  <si>
+    <t>บริษัท ไทยอุตสาหกรรมเครื่องปั้นดินเผา จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>เจ้าหนี้การค้าในประเทศ - บริษัท ไทยอุตสาหกรรมเครื่องปั้นดินเผา จำกัด (สำนักงานใหญ่)บริษัท ไทยอุตสาหกรรมเครื่องปั้นดินเผา จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>GD-0043141</t>
+  </si>
+  <si>
+    <t>VPK001</t>
+  </si>
+  <si>
+    <t>บริษัท วี พี เค ยูไนเต็ด จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>เจ้าหนี้การค้าในประเทศ - บริษัท วี พี เค ยูไนเต็ด จำกัด (สำนักงานใหญ่)บริษัท วี พี เค ยูไนเต็ด จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>GD-0043142</t>
+  </si>
+  <si>
+    <t>GD-0043201</t>
+  </si>
+  <si>
+    <t>12/19/2024</t>
+  </si>
+  <si>
+    <t>GD-0043202</t>
+  </si>
+  <si>
+    <t>GD-0043237</t>
+  </si>
+  <si>
+    <t>12/25/2024</t>
+  </si>
+  <si>
+    <t>GD-0043238</t>
+  </si>
+  <si>
+    <t>GD-0043239</t>
+  </si>
+  <si>
+    <t>GD-0043240</t>
+  </si>
+  <si>
+    <t>BGD-001200</t>
+  </si>
+  <si>
+    <t>2/25/2025</t>
+  </si>
+  <si>
+    <t>OTHER</t>
+  </si>
+  <si>
+    <t>เจ้าหนี้การค้าในประเทศ</t>
+  </si>
+  <si>
+    <t>เจ้าหนี้การค้าในประเทศ - เจ้าหนี้การค้าในประเทศเจ้าหนี้การค้าในประเทศ</t>
+  </si>
+  <si>
+    <t>RO-0010771</t>
+  </si>
+  <si>
+    <t>2/19/2025</t>
+  </si>
+  <si>
+    <t>OFM001</t>
+  </si>
+  <si>
+    <t>บริษัท ออฟฟิศเมท (ไทย) จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>เจ้าหนี้การค้าในประเทศ - บริษัท ออฟฟิศเมท (ไทย) จำกัด (สำนักงานใหญ่)บริษัท ออฟฟิศเมท (ไทย) จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>BGD-001160</t>
+  </si>
+  <si>
+    <t>2/17/2025</t>
+  </si>
+  <si>
+    <t>STM01</t>
+  </si>
+  <si>
+    <t>บริษัท สตาร์มาร์คแมนูแฟคเชอร์ริ่ง จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>เจ้าหนี้การค้าในประเทศ - บริษัท สตาร์มาร์คแมนูแฟคเชอร์ริ่ง จำกัด (สำนักงานใหญ่)บริษัท สตาร์มาร์คแมนูแฟคเชอร์ริ่ง จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>BRO-000387</t>
+  </si>
+  <si>
+    <t>1/31/2025</t>
+  </si>
+  <si>
+    <t>RO-0010780</t>
+  </si>
+  <si>
+    <t>2/21/2025</t>
+  </si>
+  <si>
+    <t>DOH001</t>
+  </si>
+  <si>
+    <t>บริษัท ดูโฮม จำกัด (มหาชน) (สาขาที่ 00003)</t>
+  </si>
+  <si>
+    <t>เจ้าหนี้การค้าในประเทศ - บริษัท ดูโฮม จำกัด (มหาชน) (สาขาที่ 00003)บริษัท ดูโฮม จำกัด (มหาชน) (สาขาที่ 00003)</t>
+  </si>
+  <si>
+    <t>GI-0003261</t>
+  </si>
+  <si>
+    <t>BFT001</t>
+  </si>
+  <si>
+    <t>บริษัท บีเอฟ ทรานสปอร์ต จำกัด ( สำนักงานใหญ่ )</t>
+  </si>
+  <si>
+    <t>เจ้าหนี้การค้าในประเทศ - บริษัท บีเอฟ ทรานสปอร์ต จำกัด ( สำนักงานใหญ่ )EXPRESS STAR LINE LTD. JYH20241215-2</t>
+  </si>
+  <si>
+    <t>GI-0003265</t>
+  </si>
+  <si>
+    <t>1/13/2025</t>
+  </si>
+  <si>
+    <t>เจ้าหนี้การค้าในประเทศ - บริษัท บีเอฟ ทรานสปอร์ต จำกัด ( สำนักงานใหญ่ )EXPRESS STAR LINE LTD. JYH20241222</t>
+  </si>
+  <si>
+    <t>GI-0003269</t>
+  </si>
+  <si>
+    <t>1/25/2025</t>
+  </si>
+  <si>
+    <t>เจ้าหนี้การค้าในประเทศ - บริษัท บีเอฟ ทรานสปอร์ต จำกัด ( สำนักงานใหญ่ )EXPRESS STAR LINE LTD. JYH2025110</t>
+  </si>
+  <si>
+    <t>GI-0003264</t>
+  </si>
+  <si>
+    <t>เจ้าหนี้การค้าในประเทศ - บริษัท บีเอฟ ทรานสปอร์ต จำกัด ( สำนักงานใหญ่ )ZHEJIANG YOUBO INTERLLIGENT TECHNOLOGY CO.,LTD. 24SC-MOG-22</t>
+  </si>
+  <si>
+    <t>BGD-001148</t>
+  </si>
+  <si>
+    <t>TGN001</t>
+  </si>
+  <si>
+    <t>บริษัท ที กรุ๊ป เอ็นจิเนียแอนด์แมชชีนทูล จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>เจ้าหนี้การค้าในประเทศ - บริษัท ที กรุ๊ป เอ็นจิเนียแอนด์แมชชีนทูล จำกัด (สำนักงานใหญ่)บริษัท ที กรุ๊ป เอ็นจิเนียแอนด์แมชชีนทูล จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>BGD-001126</t>
+  </si>
+  <si>
+    <t>RO-0010789</t>
+  </si>
+  <si>
+    <t>2/24/2025</t>
+  </si>
+  <si>
+    <t>VSA001</t>
+  </si>
+  <si>
+    <t>บริษัท วี เอส เอท อินเตอร์ จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>เจ้าหนี้การค้าในประเทศ - บริษัท วี เอส เอท อินเตอร์ จำกัด (สำนักงานใหญ่)บริษัท วี เอส เอท อินเตอร์ จำกัด (สำนักงานใหญ่)</t>
+  </si>
+  <si>
+    <t>GD-0043284</t>
+  </si>
+  <si>
+    <t>1/20/2025</t>
+  </si>
+  <si>
+    <t>GD-0043475</t>
+  </si>
+  <si>
+    <t>BGD-001156</t>
+  </si>
+  <si>
+    <t>GD-0043474</t>
+  </si>
+  <si>
+    <t>CRC008</t>
+  </si>
+  <si>
+    <t>บริษัท ซีอาร์ซี ไทวัสดุ จำกัด (สาขาลำลูกกา) สาขาที่ 00058</t>
+  </si>
+  <si>
+    <t>เจ้าหนี้การค้าในประเทศ - บริษัท ซีอาร์ซี ไทวัสดุ จำกัด (สาขาลำลูกกา) สาขาที่ 00058บริษัท ซีอาร์ซี ไทวัสดุ จำกัด (สาขาลำลูกกา) สาขาที่ 00058</t>
+  </si>
+  <si>
+    <t>สมุดรายวันขาย</t>
   </si>
 </sst>
 </file>
@@ -105,7 +462,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="[$-1010000]d/m/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -164,7 +521,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -174,20 +531,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1319,10 +1670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D11:D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1362,16 +1713,16 @@
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>6</v>
@@ -1380,45 +1731,1754 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="7" customFormat="1" ht="20.399999999999999" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="6" t="s">
+    <row r="2" spans="1:13" ht="66">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="B2" s="5">
+        <v>45546</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <v>900002</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>6173.9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="66">
+      <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="B3" s="5">
+        <v>45577</v>
+      </c>
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="E3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3">
+        <v>900002</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>9260.85</v>
+      </c>
+      <c r="L3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="66">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <v>900002</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>3210</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="66">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5">
+        <v>900002</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>4362618.38</v>
+      </c>
+      <c r="L5" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="M5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="66">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="6" t="s">
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6">
+        <v>900002</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1162265.67</v>
+      </c>
+      <c r="L6" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>18</v>
+      <c r="M6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="66">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7">
+        <v>900002</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>12795800.199999999</v>
+      </c>
+      <c r="L7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="66">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8">
+        <v>900002</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>5160184.3499999996</v>
+      </c>
+      <c r="L8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="66">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9">
+        <v>900002</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>944222.57</v>
+      </c>
+      <c r="L9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="66">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10">
+        <v>900002</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>7588333</v>
+      </c>
+      <c r="L10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="66">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="5">
+        <v>45485</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11">
+        <v>900002</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>57914.82</v>
+      </c>
+      <c r="L11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="66">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>144</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12">
+        <v>900002</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>27369.42</v>
+      </c>
+      <c r="L12" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="66">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>144</v>
+      </c>
+      <c r="F13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13">
+        <v>900002</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>4800</v>
+      </c>
+      <c r="L13" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="66">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14">
+        <v>900002</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>600</v>
+      </c>
+      <c r="L14" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="66">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" t="s">
+        <v>144</v>
+      </c>
+      <c r="F15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15">
+        <v>900002</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>3049.5</v>
+      </c>
+      <c r="L15" t="s">
+        <v>44</v>
+      </c>
+      <c r="M15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="66">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16">
+        <v>900002</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1926</v>
+      </c>
+      <c r="L16" t="s">
+        <v>49</v>
+      </c>
+      <c r="M16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="66">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="5">
+        <v>45424</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" t="s">
+        <v>144</v>
+      </c>
+      <c r="F17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17">
+        <v>900002</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>33116.5</v>
+      </c>
+      <c r="L17" t="s">
+        <v>54</v>
+      </c>
+      <c r="M17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="66">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="5">
+        <v>45577</v>
+      </c>
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18">
+        <v>900002</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>47294</v>
+      </c>
+      <c r="L18" t="s">
+        <v>58</v>
+      </c>
+      <c r="M18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="66">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19">
+        <v>900002</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>4654.5</v>
+      </c>
+      <c r="L19" t="s">
+        <v>59</v>
+      </c>
+      <c r="M19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="66">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20">
+        <v>900002</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>6580.5</v>
+      </c>
+      <c r="L20" t="s">
+        <v>60</v>
+      </c>
+      <c r="M20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="66">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" t="s">
+        <v>144</v>
+      </c>
+      <c r="F21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21">
+        <v>900002</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>10860.5</v>
+      </c>
+      <c r="L21" t="s">
+        <v>61</v>
+      </c>
+      <c r="M21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="66">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" t="s">
+        <v>144</v>
+      </c>
+      <c r="F22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22">
+        <v>900002</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>24299.7</v>
+      </c>
+      <c r="L22" t="s">
+        <v>62</v>
+      </c>
+      <c r="M22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="66">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" t="s">
+        <v>144</v>
+      </c>
+      <c r="F23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23">
+        <v>900002</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>28729.5</v>
+      </c>
+      <c r="L23" t="s">
+        <v>63</v>
+      </c>
+      <c r="M23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="66">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" t="s">
+        <v>144</v>
+      </c>
+      <c r="F24" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24">
+        <v>900002</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>25849.99</v>
+      </c>
+      <c r="L24" t="s">
+        <v>64</v>
+      </c>
+      <c r="M24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="66">
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" t="s">
+        <v>72</v>
+      </c>
+      <c r="G25" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25">
+        <v>900002</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>6300</v>
+      </c>
+      <c r="L25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="79.2">
+      <c r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26">
+        <v>900002</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>32742</v>
+      </c>
+      <c r="L26" t="s">
+        <v>74</v>
+      </c>
+      <c r="M26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="66">
+      <c r="A27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="5">
+        <v>45455</v>
+      </c>
+      <c r="D27" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" t="s">
+        <v>144</v>
+      </c>
+      <c r="F27" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" t="s">
+        <v>82</v>
+      </c>
+      <c r="H27">
+        <v>900002</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>21457.78</v>
+      </c>
+      <c r="L27" t="s">
+        <v>79</v>
+      </c>
+      <c r="M27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="66">
+      <c r="A28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="5">
+        <v>45455</v>
+      </c>
+      <c r="D28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" t="s">
+        <v>144</v>
+      </c>
+      <c r="F28" t="s">
+        <v>81</v>
+      </c>
+      <c r="G28" t="s">
+        <v>82</v>
+      </c>
+      <c r="H28">
+        <v>900002</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>13696</v>
+      </c>
+      <c r="L28" t="s">
+        <v>83</v>
+      </c>
+      <c r="M28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="66">
+      <c r="A29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" t="s">
+        <v>144</v>
+      </c>
+      <c r="F29" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" t="s">
+        <v>82</v>
+      </c>
+      <c r="H29">
+        <v>900002</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>5457</v>
+      </c>
+      <c r="L29" t="s">
+        <v>84</v>
+      </c>
+      <c r="M29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="66">
+      <c r="A30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" t="s">
+        <v>144</v>
+      </c>
+      <c r="F30" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30" t="s">
+        <v>82</v>
+      </c>
+      <c r="H30">
+        <v>900002</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>8985.86</v>
+      </c>
+      <c r="L30" t="s">
+        <v>86</v>
+      </c>
+      <c r="M30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="66">
+      <c r="A31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" t="s">
+        <v>144</v>
+      </c>
+      <c r="F31" t="s">
+        <v>81</v>
+      </c>
+      <c r="G31" t="s">
+        <v>82</v>
+      </c>
+      <c r="H31">
+        <v>900002</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>40018</v>
+      </c>
+      <c r="L31" t="s">
+        <v>87</v>
+      </c>
+      <c r="M31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="66">
+      <c r="A32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" t="s">
+        <v>144</v>
+      </c>
+      <c r="F32" t="s">
+        <v>81</v>
+      </c>
+      <c r="G32" t="s">
+        <v>82</v>
+      </c>
+      <c r="H32">
+        <v>900002</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>52859.07</v>
+      </c>
+      <c r="L32" t="s">
+        <v>89</v>
+      </c>
+      <c r="M32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="66">
+      <c r="A33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" t="s">
+        <v>144</v>
+      </c>
+      <c r="F33" t="s">
+        <v>81</v>
+      </c>
+      <c r="G33" t="s">
+        <v>82</v>
+      </c>
+      <c r="H33">
+        <v>900002</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>12305</v>
+      </c>
+      <c r="L33" t="s">
+        <v>90</v>
+      </c>
+      <c r="M33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="66">
+      <c r="A34" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" t="s">
+        <v>144</v>
+      </c>
+      <c r="F34" t="s">
+        <v>81</v>
+      </c>
+      <c r="G34" t="s">
+        <v>82</v>
+      </c>
+      <c r="H34">
+        <v>900002</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>20338.560000000001</v>
+      </c>
+      <c r="L34" t="s">
+        <v>91</v>
+      </c>
+      <c r="M34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="39.6">
+      <c r="A35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" t="s">
+        <v>144</v>
+      </c>
+      <c r="F35" t="s">
+        <v>95</v>
+      </c>
+      <c r="G35" t="s">
+        <v>96</v>
+      </c>
+      <c r="H35">
+        <v>900002</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>22</v>
+      </c>
+      <c r="L35" t="s">
+        <v>92</v>
+      </c>
+      <c r="M35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="66">
+      <c r="A36" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" t="s">
+        <v>144</v>
+      </c>
+      <c r="F36" t="s">
+        <v>100</v>
+      </c>
+      <c r="G36" t="s">
+        <v>101</v>
+      </c>
+      <c r="H36">
+        <v>900002</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>71.010000000000005</v>
+      </c>
+      <c r="L36" t="s">
+        <v>97</v>
+      </c>
+      <c r="M36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="79.2">
+      <c r="A37" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" t="s">
+        <v>144</v>
+      </c>
+      <c r="F37" t="s">
+        <v>105</v>
+      </c>
+      <c r="G37" t="s">
+        <v>106</v>
+      </c>
+      <c r="H37">
+        <v>900002</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>85.6</v>
+      </c>
+      <c r="L37" t="s">
+        <v>102</v>
+      </c>
+      <c r="M37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="66">
+      <c r="A38" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" t="s">
+        <v>144</v>
+      </c>
+      <c r="F38" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" t="s">
+        <v>41</v>
+      </c>
+      <c r="H38">
+        <v>900002</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>120</v>
+      </c>
+      <c r="L38" t="s">
+        <v>107</v>
+      </c>
+      <c r="M38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="66">
+      <c r="A39" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" t="s">
+        <v>111</v>
+      </c>
+      <c r="E39" t="s">
+        <v>144</v>
+      </c>
+      <c r="F39" t="s">
+        <v>112</v>
+      </c>
+      <c r="G39" t="s">
+        <v>113</v>
+      </c>
+      <c r="H39">
+        <v>900002</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>120</v>
+      </c>
+      <c r="L39" t="s">
+        <v>109</v>
+      </c>
+      <c r="M39" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="66">
+      <c r="A40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" s="5">
+        <v>45717</v>
+      </c>
+      <c r="D40" t="s">
+        <v>115</v>
+      </c>
+      <c r="E40" t="s">
+        <v>144</v>
+      </c>
+      <c r="F40" t="s">
+        <v>116</v>
+      </c>
+      <c r="G40" t="s">
+        <v>117</v>
+      </c>
+      <c r="H40">
+        <v>900002</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>165</v>
+      </c>
+      <c r="L40" t="s">
+        <v>114</v>
+      </c>
+      <c r="M40" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="66">
+      <c r="A41" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" t="s">
+        <v>115</v>
+      </c>
+      <c r="E41" t="s">
+        <v>144</v>
+      </c>
+      <c r="F41" t="s">
+        <v>116</v>
+      </c>
+      <c r="G41" t="s">
+        <v>120</v>
+      </c>
+      <c r="H41">
+        <v>900002</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>165</v>
+      </c>
+      <c r="L41" t="s">
+        <v>118</v>
+      </c>
+      <c r="M41" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="66">
+      <c r="A42" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D42" t="s">
+        <v>115</v>
+      </c>
+      <c r="E42" t="s">
+        <v>144</v>
+      </c>
+      <c r="F42" t="s">
+        <v>116</v>
+      </c>
+      <c r="G42" t="s">
+        <v>123</v>
+      </c>
+      <c r="H42">
+        <v>900002</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>165</v>
+      </c>
+      <c r="L42" t="s">
+        <v>121</v>
+      </c>
+      <c r="M42" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="92.4">
+      <c r="A43" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" s="5">
+        <v>45962</v>
+      </c>
+      <c r="D43" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43" t="s">
+        <v>144</v>
+      </c>
+      <c r="F43" t="s">
+        <v>116</v>
+      </c>
+      <c r="G43" t="s">
+        <v>125</v>
+      </c>
+      <c r="H43">
+        <v>900002</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>214</v>
+      </c>
+      <c r="L43" t="s">
+        <v>124</v>
+      </c>
+      <c r="M43" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="79.2">
+      <c r="A44" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" t="s">
+        <v>127</v>
+      </c>
+      <c r="E44" t="s">
+        <v>144</v>
+      </c>
+      <c r="F44" t="s">
+        <v>128</v>
+      </c>
+      <c r="G44" t="s">
+        <v>129</v>
+      </c>
+      <c r="H44">
+        <v>900002</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>235.4</v>
+      </c>
+      <c r="L44" t="s">
+        <v>126</v>
+      </c>
+      <c r="M44" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="92.4">
+      <c r="A45" t="s">
+        <v>124</v>
+      </c>
+      <c r="B45" s="5">
+        <v>45962</v>
+      </c>
+      <c r="D45" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" t="s">
+        <v>144</v>
+      </c>
+      <c r="F45" t="s">
+        <v>116</v>
+      </c>
+      <c r="G45" t="s">
+        <v>125</v>
+      </c>
+      <c r="H45">
+        <v>900002</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>267.5</v>
+      </c>
+      <c r="L45" t="s">
+        <v>124</v>
+      </c>
+      <c r="M45" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="79.2">
+      <c r="A46" t="s">
+        <v>130</v>
+      </c>
+      <c r="B46" s="5">
+        <v>45963</v>
+      </c>
+      <c r="D46" t="s">
+        <v>127</v>
+      </c>
+      <c r="E46" t="s">
+        <v>144</v>
+      </c>
+      <c r="F46" t="s">
+        <v>128</v>
+      </c>
+      <c r="G46" t="s">
+        <v>129</v>
+      </c>
+      <c r="H46">
+        <v>900002</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>288.89999999999998</v>
+      </c>
+      <c r="L46" t="s">
+        <v>130</v>
+      </c>
+      <c r="M46" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="66">
+      <c r="A47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" t="s">
+        <v>133</v>
+      </c>
+      <c r="E47" t="s">
+        <v>144</v>
+      </c>
+      <c r="F47" t="s">
+        <v>134</v>
+      </c>
+      <c r="G47" t="s">
+        <v>135</v>
+      </c>
+      <c r="H47">
+        <v>900002</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>288.89999999999998</v>
+      </c>
+      <c r="L47" t="s">
+        <v>131</v>
+      </c>
+      <c r="M47" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="79.2">
+      <c r="A48" t="s">
+        <v>136</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D48" t="s">
+        <v>76</v>
+      </c>
+      <c r="E48" t="s">
+        <v>144</v>
+      </c>
+      <c r="F48" t="s">
+        <v>77</v>
+      </c>
+      <c r="G48" t="s">
+        <v>78</v>
+      </c>
+      <c r="H48">
+        <v>900002</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>321</v>
+      </c>
+      <c r="L48" t="s">
+        <v>136</v>
+      </c>
+      <c r="M48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="39.6">
+      <c r="A49" t="s">
+        <v>138</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D49" t="s">
+        <v>94</v>
+      </c>
+      <c r="E49" t="s">
+        <v>144</v>
+      </c>
+      <c r="F49" t="s">
+        <v>95</v>
+      </c>
+      <c r="G49" t="s">
+        <v>96</v>
+      </c>
+      <c r="H49">
+        <v>900002</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>330</v>
+      </c>
+      <c r="L49" t="s">
+        <v>138</v>
+      </c>
+      <c r="M49" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="66">
+      <c r="A50" t="s">
+        <v>139</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" t="s">
+        <v>39</v>
+      </c>
+      <c r="E50" t="s">
+        <v>144</v>
+      </c>
+      <c r="F50" t="s">
+        <v>40</v>
+      </c>
+      <c r="G50" t="s">
+        <v>41</v>
+      </c>
+      <c r="H50">
+        <v>900002</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>350</v>
+      </c>
+      <c r="L50" t="s">
+        <v>139</v>
+      </c>
+      <c r="M50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="79.2">
+      <c r="A51" t="s">
+        <v>140</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D51" t="s">
+        <v>141</v>
+      </c>
+      <c r="E51" t="s">
+        <v>144</v>
+      </c>
+      <c r="F51" t="s">
+        <v>142</v>
+      </c>
+      <c r="G51" t="s">
+        <v>143</v>
+      </c>
+      <c r="H51">
+        <v>900002</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>408</v>
+      </c>
+      <c r="L51" t="s">
+        <v>140</v>
+      </c>
+      <c r="M51" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1429,10 +3489,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="D47" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1472,16 +3532,16 @@
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>6</v>
@@ -1490,45 +3550,1754 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="7" customFormat="1" ht="20.399999999999999" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="6" t="s">
+    <row r="2" spans="1:13" ht="66">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="B2" s="4">
+        <v>45546</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <v>900002</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>6173.9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="66">
+      <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="B3" s="4">
+        <v>45577</v>
+      </c>
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="E3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3">
+        <v>900002</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>9260.85</v>
+      </c>
+      <c r="L3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="66">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <v>900002</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>3210</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="66">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5">
+        <v>900002</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>4362618.38</v>
+      </c>
+      <c r="L5" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="M5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="66">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="6" t="s">
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6">
+        <v>900002</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1162265.67</v>
+      </c>
+      <c r="L6" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>18</v>
+      <c r="M6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="66">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7">
+        <v>900002</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>12795800.199999999</v>
+      </c>
+      <c r="L7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="66">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8">
+        <v>900002</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>5160184.3499999996</v>
+      </c>
+      <c r="L8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="66">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9">
+        <v>900002</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>944222.57</v>
+      </c>
+      <c r="L9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="66">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10">
+        <v>900002</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>7588333</v>
+      </c>
+      <c r="L10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="66">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="4">
+        <v>45485</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11">
+        <v>900002</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>57914.82</v>
+      </c>
+      <c r="L11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="66">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>144</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12">
+        <v>900002</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>27369.42</v>
+      </c>
+      <c r="L12" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="66">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>144</v>
+      </c>
+      <c r="F13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13">
+        <v>900002</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>4800</v>
+      </c>
+      <c r="L13" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="66">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14">
+        <v>900002</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>600</v>
+      </c>
+      <c r="L14" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="66">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" t="s">
+        <v>144</v>
+      </c>
+      <c r="F15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15">
+        <v>900002</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>3049.5</v>
+      </c>
+      <c r="L15" t="s">
+        <v>44</v>
+      </c>
+      <c r="M15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="66">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16">
+        <v>900002</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1926</v>
+      </c>
+      <c r="L16" t="s">
+        <v>49</v>
+      </c>
+      <c r="M16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="66">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="4">
+        <v>45424</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" t="s">
+        <v>144</v>
+      </c>
+      <c r="F17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17">
+        <v>900002</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>33116.5</v>
+      </c>
+      <c r="L17" t="s">
+        <v>54</v>
+      </c>
+      <c r="M17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="66">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="4">
+        <v>45577</v>
+      </c>
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18">
+        <v>900002</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>47294</v>
+      </c>
+      <c r="L18" t="s">
+        <v>58</v>
+      </c>
+      <c r="M18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="66">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19">
+        <v>900002</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>4654.5</v>
+      </c>
+      <c r="L19" t="s">
+        <v>59</v>
+      </c>
+      <c r="M19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="66">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20">
+        <v>900002</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>6580.5</v>
+      </c>
+      <c r="L20" t="s">
+        <v>60</v>
+      </c>
+      <c r="M20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="66">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" t="s">
+        <v>144</v>
+      </c>
+      <c r="F21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21">
+        <v>900002</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>10860.5</v>
+      </c>
+      <c r="L21" t="s">
+        <v>61</v>
+      </c>
+      <c r="M21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="66">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" t="s">
+        <v>144</v>
+      </c>
+      <c r="F22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22">
+        <v>900002</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>24299.7</v>
+      </c>
+      <c r="L22" t="s">
+        <v>62</v>
+      </c>
+      <c r="M22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="66">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" t="s">
+        <v>144</v>
+      </c>
+      <c r="F23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23">
+        <v>900002</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>28729.5</v>
+      </c>
+      <c r="L23" t="s">
+        <v>63</v>
+      </c>
+      <c r="M23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="66">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" t="s">
+        <v>144</v>
+      </c>
+      <c r="F24" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24">
+        <v>900002</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>25849.99</v>
+      </c>
+      <c r="L24" t="s">
+        <v>64</v>
+      </c>
+      <c r="M24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="66">
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" t="s">
+        <v>72</v>
+      </c>
+      <c r="G25" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25">
+        <v>900002</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>6300</v>
+      </c>
+      <c r="L25" t="s">
+        <v>69</v>
+      </c>
+      <c r="M25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="79.2">
+      <c r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26">
+        <v>900002</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>32742</v>
+      </c>
+      <c r="L26" t="s">
+        <v>74</v>
+      </c>
+      <c r="M26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="66">
+      <c r="A27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="4">
+        <v>45455</v>
+      </c>
+      <c r="D27" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" t="s">
+        <v>144</v>
+      </c>
+      <c r="F27" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" t="s">
+        <v>82</v>
+      </c>
+      <c r="H27">
+        <v>900002</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>21457.78</v>
+      </c>
+      <c r="L27" t="s">
+        <v>79</v>
+      </c>
+      <c r="M27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="66">
+      <c r="A28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="4">
+        <v>45455</v>
+      </c>
+      <c r="D28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" t="s">
+        <v>144</v>
+      </c>
+      <c r="F28" t="s">
+        <v>81</v>
+      </c>
+      <c r="G28" t="s">
+        <v>82</v>
+      </c>
+      <c r="H28">
+        <v>900002</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>13696</v>
+      </c>
+      <c r="L28" t="s">
+        <v>83</v>
+      </c>
+      <c r="M28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="66">
+      <c r="A29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" t="s">
+        <v>144</v>
+      </c>
+      <c r="F29" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" t="s">
+        <v>82</v>
+      </c>
+      <c r="H29">
+        <v>900002</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>5457</v>
+      </c>
+      <c r="L29" t="s">
+        <v>84</v>
+      </c>
+      <c r="M29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="66">
+      <c r="A30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" t="s">
+        <v>144</v>
+      </c>
+      <c r="F30" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30" t="s">
+        <v>82</v>
+      </c>
+      <c r="H30">
+        <v>900002</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>8985.86</v>
+      </c>
+      <c r="L30" t="s">
+        <v>86</v>
+      </c>
+      <c r="M30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="66">
+      <c r="A31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" t="s">
+        <v>144</v>
+      </c>
+      <c r="F31" t="s">
+        <v>81</v>
+      </c>
+      <c r="G31" t="s">
+        <v>82</v>
+      </c>
+      <c r="H31">
+        <v>900002</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>40018</v>
+      </c>
+      <c r="L31" t="s">
+        <v>87</v>
+      </c>
+      <c r="M31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="66">
+      <c r="A32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" t="s">
+        <v>144</v>
+      </c>
+      <c r="F32" t="s">
+        <v>81</v>
+      </c>
+      <c r="G32" t="s">
+        <v>82</v>
+      </c>
+      <c r="H32">
+        <v>900002</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>52859.07</v>
+      </c>
+      <c r="L32" t="s">
+        <v>89</v>
+      </c>
+      <c r="M32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="66">
+      <c r="A33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" t="s">
+        <v>144</v>
+      </c>
+      <c r="F33" t="s">
+        <v>81</v>
+      </c>
+      <c r="G33" t="s">
+        <v>82</v>
+      </c>
+      <c r="H33">
+        <v>900002</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>12305</v>
+      </c>
+      <c r="L33" t="s">
+        <v>90</v>
+      </c>
+      <c r="M33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="66">
+      <c r="A34" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" t="s">
+        <v>144</v>
+      </c>
+      <c r="F34" t="s">
+        <v>81</v>
+      </c>
+      <c r="G34" t="s">
+        <v>82</v>
+      </c>
+      <c r="H34">
+        <v>900002</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>20338.560000000001</v>
+      </c>
+      <c r="L34" t="s">
+        <v>91</v>
+      </c>
+      <c r="M34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="39.6">
+      <c r="A35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" t="s">
+        <v>144</v>
+      </c>
+      <c r="F35" t="s">
+        <v>95</v>
+      </c>
+      <c r="G35" t="s">
+        <v>96</v>
+      </c>
+      <c r="H35">
+        <v>900002</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>22</v>
+      </c>
+      <c r="L35" t="s">
+        <v>92</v>
+      </c>
+      <c r="M35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="66">
+      <c r="A36" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" t="s">
+        <v>144</v>
+      </c>
+      <c r="F36" t="s">
+        <v>100</v>
+      </c>
+      <c r="G36" t="s">
+        <v>101</v>
+      </c>
+      <c r="H36">
+        <v>900002</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>71.010000000000005</v>
+      </c>
+      <c r="L36" t="s">
+        <v>97</v>
+      </c>
+      <c r="M36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="79.2">
+      <c r="A37" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" t="s">
+        <v>144</v>
+      </c>
+      <c r="F37" t="s">
+        <v>105</v>
+      </c>
+      <c r="G37" t="s">
+        <v>106</v>
+      </c>
+      <c r="H37">
+        <v>900002</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>85.6</v>
+      </c>
+      <c r="L37" t="s">
+        <v>102</v>
+      </c>
+      <c r="M37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="66">
+      <c r="A38" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" t="s">
+        <v>144</v>
+      </c>
+      <c r="F38" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" t="s">
+        <v>41</v>
+      </c>
+      <c r="H38">
+        <v>900002</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>120</v>
+      </c>
+      <c r="L38" t="s">
+        <v>107</v>
+      </c>
+      <c r="M38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="66">
+      <c r="A39" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" t="s">
+        <v>111</v>
+      </c>
+      <c r="E39" t="s">
+        <v>144</v>
+      </c>
+      <c r="F39" t="s">
+        <v>112</v>
+      </c>
+      <c r="G39" t="s">
+        <v>113</v>
+      </c>
+      <c r="H39">
+        <v>900002</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>120</v>
+      </c>
+      <c r="L39" t="s">
+        <v>109</v>
+      </c>
+      <c r="M39" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="66">
+      <c r="A40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" s="4">
+        <v>45717</v>
+      </c>
+      <c r="D40" t="s">
+        <v>115</v>
+      </c>
+      <c r="E40" t="s">
+        <v>144</v>
+      </c>
+      <c r="F40" t="s">
+        <v>116</v>
+      </c>
+      <c r="G40" t="s">
+        <v>117</v>
+      </c>
+      <c r="H40">
+        <v>900002</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>165</v>
+      </c>
+      <c r="L40" t="s">
+        <v>114</v>
+      </c>
+      <c r="M40" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="66">
+      <c r="A41" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" t="s">
+        <v>115</v>
+      </c>
+      <c r="E41" t="s">
+        <v>144</v>
+      </c>
+      <c r="F41" t="s">
+        <v>116</v>
+      </c>
+      <c r="G41" t="s">
+        <v>120</v>
+      </c>
+      <c r="H41">
+        <v>900002</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>165</v>
+      </c>
+      <c r="L41" t="s">
+        <v>118</v>
+      </c>
+      <c r="M41" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="66">
+      <c r="A42" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D42" t="s">
+        <v>115</v>
+      </c>
+      <c r="E42" t="s">
+        <v>144</v>
+      </c>
+      <c r="F42" t="s">
+        <v>116</v>
+      </c>
+      <c r="G42" t="s">
+        <v>123</v>
+      </c>
+      <c r="H42">
+        <v>900002</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>165</v>
+      </c>
+      <c r="L42" t="s">
+        <v>121</v>
+      </c>
+      <c r="M42" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="92.4">
+      <c r="A43" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" s="4">
+        <v>45962</v>
+      </c>
+      <c r="D43" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43" t="s">
+        <v>144</v>
+      </c>
+      <c r="F43" t="s">
+        <v>116</v>
+      </c>
+      <c r="G43" t="s">
+        <v>125</v>
+      </c>
+      <c r="H43">
+        <v>900002</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>214</v>
+      </c>
+      <c r="L43" t="s">
+        <v>124</v>
+      </c>
+      <c r="M43" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="79.2">
+      <c r="A44" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" t="s">
+        <v>127</v>
+      </c>
+      <c r="E44" t="s">
+        <v>144</v>
+      </c>
+      <c r="F44" t="s">
+        <v>128</v>
+      </c>
+      <c r="G44" t="s">
+        <v>129</v>
+      </c>
+      <c r="H44">
+        <v>900002</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>235.4</v>
+      </c>
+      <c r="L44" t="s">
+        <v>126</v>
+      </c>
+      <c r="M44" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="92.4">
+      <c r="A45" t="s">
+        <v>124</v>
+      </c>
+      <c r="B45" s="4">
+        <v>45962</v>
+      </c>
+      <c r="D45" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" t="s">
+        <v>144</v>
+      </c>
+      <c r="F45" t="s">
+        <v>116</v>
+      </c>
+      <c r="G45" t="s">
+        <v>125</v>
+      </c>
+      <c r="H45">
+        <v>900002</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>267.5</v>
+      </c>
+      <c r="L45" t="s">
+        <v>124</v>
+      </c>
+      <c r="M45" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="79.2">
+      <c r="A46" t="s">
+        <v>130</v>
+      </c>
+      <c r="B46" s="4">
+        <v>45963</v>
+      </c>
+      <c r="D46" t="s">
+        <v>127</v>
+      </c>
+      <c r="E46" t="s">
+        <v>144</v>
+      </c>
+      <c r="F46" t="s">
+        <v>128</v>
+      </c>
+      <c r="G46" t="s">
+        <v>129</v>
+      </c>
+      <c r="H46">
+        <v>900002</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>288.89999999999998</v>
+      </c>
+      <c r="L46" t="s">
+        <v>130</v>
+      </c>
+      <c r="M46" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="66">
+      <c r="A47" t="s">
+        <v>131</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" t="s">
+        <v>133</v>
+      </c>
+      <c r="E47" t="s">
+        <v>144</v>
+      </c>
+      <c r="F47" t="s">
+        <v>134</v>
+      </c>
+      <c r="G47" t="s">
+        <v>135</v>
+      </c>
+      <c r="H47">
+        <v>900002</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>288.89999999999998</v>
+      </c>
+      <c r="L47" t="s">
+        <v>131</v>
+      </c>
+      <c r="M47" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="79.2">
+      <c r="A48" t="s">
+        <v>136</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D48" t="s">
+        <v>76</v>
+      </c>
+      <c r="E48" t="s">
+        <v>144</v>
+      </c>
+      <c r="F48" t="s">
+        <v>77</v>
+      </c>
+      <c r="G48" t="s">
+        <v>78</v>
+      </c>
+      <c r="H48">
+        <v>900002</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>321</v>
+      </c>
+      <c r="L48" t="s">
+        <v>136</v>
+      </c>
+      <c r="M48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="39.6">
+      <c r="A49" t="s">
+        <v>138</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D49" t="s">
+        <v>94</v>
+      </c>
+      <c r="E49" t="s">
+        <v>144</v>
+      </c>
+      <c r="F49" t="s">
+        <v>95</v>
+      </c>
+      <c r="G49" t="s">
+        <v>96</v>
+      </c>
+      <c r="H49">
+        <v>900002</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>330</v>
+      </c>
+      <c r="L49" t="s">
+        <v>138</v>
+      </c>
+      <c r="M49" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="66">
+      <c r="A50" t="s">
+        <v>139</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" t="s">
+        <v>39</v>
+      </c>
+      <c r="E50" t="s">
+        <v>144</v>
+      </c>
+      <c r="F50" t="s">
+        <v>40</v>
+      </c>
+      <c r="G50" t="s">
+        <v>41</v>
+      </c>
+      <c r="H50">
+        <v>900002</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>350</v>
+      </c>
+      <c r="L50" t="s">
+        <v>139</v>
+      </c>
+      <c r="M50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="79.2">
+      <c r="A51" t="s">
+        <v>140</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D51" t="s">
+        <v>141</v>
+      </c>
+      <c r="E51" t="s">
+        <v>144</v>
+      </c>
+      <c r="F51" t="s">
+        <v>142</v>
+      </c>
+      <c r="G51" t="s">
+        <v>143</v>
+      </c>
+      <c r="H51">
+        <v>900002</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>408</v>
+      </c>
+      <c r="L51" t="s">
+        <v>140</v>
+      </c>
+      <c r="M51" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
